--- a/Anul I - Licenta/Semestrul I/Programarea Algoritmilor/Seminare/Seminarul 4/PP03. Carti/carti.xlsx
+++ b/Anul I - Licenta/Semestrul I/Programarea Algoritmilor/Seminare/Seminarul 4/PP03. Carti/carti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMI\FMI-INFO-S15-2024-2027\Anul I - Licenta\Semestrul I\Programarea Algoritmilor\Seminare\Seminarul 4\PP03. Carti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259DA2A7-126F-4BF3-AB3E-6C120899A20E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A0EFB2-033C-450F-B5F3-754F65E83E8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{24F3A370-84A3-4162-8C4C-A4238A64BD84}"/>
   </bookViews>
@@ -505,295 +505,295 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C1" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1960</v>
-      </c>
-      <c r="D1" s="1">
-        <v>15.99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1984</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>1949</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1949</v>
-      </c>
-      <c r="D2" s="1">
-        <v>14.99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>1813</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1813</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>1925</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1925</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13.49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>1851</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1851</v>
-      </c>
-      <c r="D5" s="1">
-        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>1869</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1869</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>1951</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1951</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14.49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>1954</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1954</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1997</v>
-      </c>
-      <c r="D9" s="1">
-        <v>22.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1">
+        <v>1937</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1937</v>
-      </c>
-      <c r="D10" s="1">
-        <v>15.99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1996</v>
-      </c>
-      <c r="D11" s="1">
-        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1990</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1">
+        <v>1932</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.99</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1932</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13.99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1">
+        <v>1988</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1988</v>
-      </c>
-      <c r="D15" s="1">
-        <v>16.489999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1">
+        <v>1965</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1965</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20.99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14.99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.49</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15.49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="1">
-        <v>17.489999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21.99</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D20" s="1">
-        <v>21.99</v>
       </c>
     </row>
   </sheetData>
